--- a/Data/baza.xlsx
+++ b/Data/baza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Prognozowanie-i-symulacja-zjawisk-gospodarczych---Mateusz-Chorab-Mikolaj-Abram\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B0A35A-D2B1-4927-B28A-D573004B876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFE924-F708-466C-8503-260BFEAE0E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D3FC375-E3F2-493C-85B3-F108BCF5451B}"/>
   </bookViews>
@@ -47,13 +47,13 @@
     <t>PRZYROST NATURALNY</t>
   </si>
   <si>
-    <t>STOPA BEZROBOCIA REJESTROWANEGO</t>
-  </si>
-  <si>
     <t>PRZECIĘTNE DALSZE TRWANIE ŻYCIE (W LATACH) DLA MĘŻCZYZN</t>
   </si>
   <si>
     <t>PRZECIĘTNE DALSZE TRWANIE ŻYCIE (W LATACH) DLA KOBIET</t>
+  </si>
+  <si>
+    <t>STOPA BEZROBOCIA REJESTROWANEGO (W %)</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FF02A2-5DDE-4BE1-8789-ADE14C687F99}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,212 +486,412 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="B2" s="3">
-        <v>38478602</v>
+        <v>38173835</v>
       </c>
       <c r="C2" s="3">
-        <v>-1307</v>
+        <v>-7391</v>
       </c>
       <c r="D2" s="2">
-        <v>11.4</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
-        <v>73.75</v>
+        <v>70.7</v>
       </c>
       <c r="F2" s="2">
-        <v>81.61</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="B3" s="3">
-        <v>38437239</v>
+        <v>38157055</v>
       </c>
       <c r="C3" s="3">
-        <v>-25613</v>
+        <v>-3902</v>
       </c>
       <c r="D3" s="2">
-        <v>9.6999999999999993</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>73.599999999999994</v>
+        <v>70.8</v>
       </c>
       <c r="F3" s="2">
-        <v>81.599999999999994</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="B4" s="3">
-        <v>38432992</v>
+        <v>38125479</v>
       </c>
       <c r="C4" s="3">
-        <v>-5752</v>
+        <v>4558</v>
       </c>
       <c r="D4" s="2">
-        <v>8.1999999999999993</v>
+        <v>14.8</v>
       </c>
       <c r="E4" s="2">
-        <v>73.94</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F4" s="2">
-        <v>81.94</v>
+        <v>79.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="B5" s="3">
-        <v>38433558</v>
+        <v>38115641</v>
       </c>
       <c r="C5" s="3">
-        <v>-870</v>
+        <v>10647</v>
       </c>
       <c r="D5" s="2">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="E5" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="2">
-        <v>81.8</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B6" s="3">
-        <v>38411148</v>
+        <v>38135876</v>
       </c>
       <c r="C6" s="3">
-        <v>-26022</v>
+        <v>35100</v>
       </c>
       <c r="D6" s="2">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="E6" s="2">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="F6" s="2">
-        <v>81.7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B7" s="3">
-        <v>38382576</v>
+        <v>38167329</v>
       </c>
       <c r="C7" s="3">
-        <v>-34755</v>
+        <v>32649</v>
       </c>
       <c r="D7" s="2">
-        <v>5.2</v>
+        <v>12.1</v>
       </c>
       <c r="E7" s="2">
-        <v>74.099999999999994</v>
+        <v>71.5</v>
       </c>
       <c r="F7" s="2">
-        <v>81.8</v>
+        <v>80.099999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B8" s="3">
-        <v>38088564</v>
+        <v>38529866</v>
       </c>
       <c r="C8" s="3">
-        <v>-122046</v>
+        <v>34822</v>
       </c>
       <c r="D8" s="2">
-        <v>6.3</v>
+        <v>12.4</v>
       </c>
       <c r="E8" s="2">
-        <v>72.599999999999994</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F8" s="2">
-        <v>80.7</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="B9" s="3">
-        <v>37907704</v>
+        <v>38538447</v>
       </c>
       <c r="C9" s="3">
-        <v>-188006</v>
+        <v>12915</v>
       </c>
       <c r="D9" s="2">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="E9" s="2">
-        <v>71.8</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="F9" s="2">
-        <v>79.7</v>
+        <v>80.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="B10" s="3">
-        <v>37766327</v>
+        <v>38533299</v>
       </c>
       <c r="C10" s="3">
-        <v>-143316</v>
+        <v>1469</v>
       </c>
       <c r="D10" s="2">
-        <v>5.2</v>
+        <v>13.4</v>
       </c>
       <c r="E10" s="2">
-        <v>73.400000000000006</v>
+        <v>72.7</v>
       </c>
       <c r="F10" s="2">
-        <v>81.099999999999994</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="3">
+        <v>38495659</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-17736</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F11" s="2">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="3">
+        <v>38478602</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1307</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>73.75</v>
+      </c>
+      <c r="F12" s="2">
+        <v>81.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="3">
+        <v>38437239</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-25613</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E13" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F13" s="2">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="3">
+        <v>38432992</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-5752</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E14" s="2">
+        <v>73.94</v>
+      </c>
+      <c r="F14" s="2">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="3">
+        <v>38433558</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-870</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>74</v>
+      </c>
+      <c r="F15" s="2">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="3">
+        <v>38411148</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-26022</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="3">
+        <v>38382576</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-34755</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F17" s="2">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="3">
+        <v>38088564</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-122046</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F18" s="2">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37907704</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-188006</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="F19" s="2">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="3">
+        <v>37766327</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-143316</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F20" s="2">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2023</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B21" s="3">
         <v>37636508</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C21" s="3">
         <v>-136585</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D21" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E21" s="2">
         <v>74.7</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F21" s="2">
         <v>82</v>
       </c>
     </row>
